--- a/url2.xlsx
+++ b/url2.xlsx
@@ -31,7 +31,7 @@
     <t>rating</t>
   </si>
   <si>
-    <t>is_superhost</t>
+    <t>superhost</t>
   </si>
   <si>
     <t>Casa em Parque Hotel</t>
@@ -61,12 +61,12 @@
     <t>Curta o melhor de Araruama e Região dos Lagos</t>
   </si>
   <si>
+    <t>Casarão com Piscina poucos passos do Mar (PRAIA)</t>
+  </si>
+  <si>
     <t>Praia pertinho! 4 suítes, Piscina e Churrasqueira</t>
   </si>
   <si>
-    <t>Casarão com Piscina poucos passos do Mar (PRAIA)</t>
-  </si>
-  <si>
     <t>Apartamento à beira da orla de Araruama</t>
   </si>
   <si>
@@ -79,10 +79,10 @@
     <t>Chalé Recantinho da Lagoa, Araruama,Rj</t>
   </si>
   <si>
+    <t>VEM! Casa Rodrigues - Praia Seca, Araruama</t>
+  </si>
+  <si>
     <t>Casa em praia seca com piscina e um belo jardim</t>
-  </si>
-  <si>
-    <t>VEM! Casa Rodrigues - Praia Seca, Araruama</t>
   </si>
   <si>
     <t>Casa c/ Piscina Região dos Lagos</t>
@@ -117,12 +117,12 @@
     <t>4 camas</t>
   </si>
   <si>
+    <t>5 camas</t>
+  </si>
+  <si>
     <t>10 camas</t>
   </si>
   <si>
-    <t>5 camas</t>
-  </si>
-  <si>
     <t>3 camas</t>
   </si>
   <si>
@@ -132,24 +132,24 @@
     <t>1 cama</t>
   </si>
   <si>
+    <t>1 cama de casal</t>
+  </si>
+  <si>
     <t>13 camas</t>
   </si>
   <si>
-    <t>1 cama de casal</t>
-  </si>
-  <si>
     <t>8 camas</t>
   </si>
   <si>
     <t>R$133 por noite</t>
   </si>
   <si>
+    <t>R$599 por noite</t>
+  </si>
+  <si>
     <t>R$326 por noite, originalmente R$358</t>
   </si>
   <si>
-    <t>R$599 por noite</t>
-  </si>
-  <si>
     <t>R$228 por noite</t>
   </si>
   <si>
@@ -162,12 +162,12 @@
     <t>R$91 por noite</t>
   </si>
   <si>
+    <t>R$116 por noite, originalmente R$137</t>
+  </si>
+  <si>
     <t>R$314 por noite</t>
   </si>
   <si>
-    <t>R$116 por noite, originalmente R$137</t>
-  </si>
-  <si>
     <t>R$415 por noite, originalmente R$482</t>
   </si>
   <si>
@@ -198,12 +198,12 @@
     <t>4,89 (28)</t>
   </si>
   <si>
+    <t>5,0 (16)</t>
+  </si>
+  <si>
     <t>4,74 (70)</t>
   </si>
   <si>
-    <t>5,0 (16)</t>
-  </si>
-  <si>
     <t>4,44 (9)</t>
   </si>
   <si>
@@ -216,12 +216,12 @@
     <t>4,84 (75)</t>
   </si>
   <si>
+    <t>4,92 (173)</t>
+  </si>
+  <si>
     <t>4,97 (37)</t>
   </si>
   <si>
-    <t>4,92 (173)</t>
-  </si>
-  <si>
     <t>5,0 (45)</t>
   </si>
   <si>
@@ -243,7 +243,7 @@
     <t>4,95 (73)</t>
   </si>
   <si>
-    <t>&lt;div class="t1mwk1n0 dir dir-ltr"&gt;Superhost&lt;/div&gt;</t>
+    <t>Superhost</t>
   </si>
 </sst>
 </file>
@@ -663,6 +663,9 @@
       <c r="E3" t="s">
         <v>60</v>
       </c>
+      <c r="F3" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
@@ -680,9 +683,6 @@
       <c r="E4" t="s">
         <v>61</v>
       </c>
-      <c r="F4" t="s">
-        <v>75</v>
-      </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
@@ -757,7 +757,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
         <v>21</v>
@@ -777,7 +777,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
         <v>22</v>

--- a/url2.xlsx
+++ b/url2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="79">
   <si>
     <t>title</t>
   </si>
@@ -34,67 +34,43 @@
     <t>superhost</t>
   </si>
   <si>
+    <t>execution_time</t>
+  </si>
+  <si>
+    <t>Casa em Araruama</t>
+  </si>
+  <si>
+    <t>Apartamento em Araruama</t>
+  </si>
+  <si>
+    <t>Condomínio em Araruama</t>
+  </si>
+  <si>
     <t>Casa em Parque Hotel</t>
   </si>
   <si>
-    <t>Casa em Araruama</t>
-  </si>
-  <si>
-    <t>Condomínio em Araruama</t>
-  </si>
-  <si>
-    <t>Chalé em Coqueiral</t>
-  </si>
-  <si>
     <t>Quarto privativo em Araruama</t>
   </si>
   <si>
-    <t>Casa em Praia Seca</t>
-  </si>
-  <si>
-    <t>Apartamento em Araruama</t>
+    <t>Casa de hóspedes em Pontinha</t>
+  </si>
+  <si>
+    <t>Casa em Ponte dos Leites</t>
+  </si>
+  <si>
+    <t>Casa de campo em Araruama</t>
   </si>
   <si>
     <t>Casa em Praia Linda</t>
   </si>
   <si>
-    <t>Curta o melhor de Araruama e Região dos Lagos</t>
-  </si>
-  <si>
-    <t>Casarão com Piscina poucos passos do Mar (PRAIA)</t>
-  </si>
-  <si>
-    <t>Praia pertinho! 4 suítes, Piscina e Churrasqueira</t>
-  </si>
-  <si>
-    <t>Apartamento à beira da orla de Araruama</t>
-  </si>
-  <si>
-    <t>loft &lt;SPA&lt; onde você descansa relaxa e se renova</t>
-  </si>
-  <si>
-    <t>Loft agradável em Araruama.</t>
-  </si>
-  <si>
-    <t>Chalé Recantinho da Lagoa, Araruama,Rj</t>
-  </si>
-  <si>
-    <t>VEM! Casa Rodrigues - Praia Seca, Araruama</t>
-  </si>
-  <si>
-    <t>Casa em praia seca com piscina e um belo jardim</t>
-  </si>
-  <si>
-    <t>Casa c/ Piscina Região dos Lagos</t>
-  </si>
-  <si>
-    <t>Jms Recanto Região dos Lagos</t>
-  </si>
-  <si>
-    <t>Casa de praia no Recanto do Buda</t>
-  </si>
-  <si>
-    <t>Casa de 1 quarto em Araruama</t>
+    <t>Apartamento em Parque Hotel</t>
+  </si>
+  <si>
+    <t>Casa na Região dos Lagos</t>
+  </si>
+  <si>
+    <t>Loft completo para temporada</t>
   </si>
   <si>
     <t>Kitinete em Araruama/RJ!
@@ -102,10 +78,31 @@
 Perto da Praia!</t>
   </si>
   <si>
-    <t>Casa na Região dos Lagos</t>
-  </si>
-  <si>
-    <t>Loft completo para temporada</t>
+    <t>Apartamento à beira da orla de Araruama</t>
+  </si>
+  <si>
+    <t>Curta o melhor de Araruama e Região dos Lagos</t>
+  </si>
+  <si>
+    <t>Casarão com Piscina poucos passos do Mar (PRAIA)</t>
+  </si>
+  <si>
+    <t>#Hospedagem Nota 10 Araruama!</t>
+  </si>
+  <si>
+    <t>Jms Recanto Região dos Lagos</t>
+  </si>
+  <si>
+    <t>Casa do Alto da Pontinha</t>
+  </si>
+  <si>
+    <t>Casa com piscina condomínio Sonho de Vida</t>
+  </si>
+  <si>
+    <t>Casa de Praia agradável com piscina em Praia Seca</t>
+  </si>
+  <si>
+    <t>Casa de praia no Recanto do Buda</t>
   </si>
   <si>
     <t>Recanto dos Canários</t>
@@ -114,31 +111,49 @@
     <t>Casa aconchegante em ótima localização em Araruama</t>
   </si>
   <si>
+    <t>Apartamento na Lagoa de Araruama</t>
+  </si>
+  <si>
+    <t>Casa em praia seca com piscina e um belo jardim</t>
+  </si>
+  <si>
+    <t>Casa de 1 quarto em Araruama</t>
+  </si>
+  <si>
+    <t>Praia pertinho! 4 suítes, Piscina e Churrasqueira</t>
+  </si>
+  <si>
     <t>4 camas</t>
   </si>
   <si>
+    <t>2 camas</t>
+  </si>
+  <si>
+    <t>3 camas</t>
+  </si>
+  <si>
     <t>5 camas</t>
   </si>
   <si>
+    <t>6 camas</t>
+  </si>
+  <si>
+    <t>13 camas</t>
+  </si>
+  <si>
     <t>10 camas</t>
   </si>
   <si>
-    <t>3 camas</t>
-  </si>
-  <si>
-    <t>2 camas</t>
-  </si>
-  <si>
-    <t>1 cama</t>
-  </si>
-  <si>
-    <t>1 cama de casal</t>
-  </si>
-  <si>
-    <t>13 camas</t>
-  </si>
-  <si>
-    <t>8 camas</t>
+    <t>R$87 por noite, originalmente R$128</t>
+  </si>
+  <si>
+    <t>R$300 por noite</t>
+  </si>
+  <si>
+    <t>R$198 por noite</t>
+  </si>
+  <si>
+    <t>R$228 por noite</t>
   </si>
   <si>
     <t>R$133 por noite</t>
@@ -147,52 +162,52 @@
     <t>R$599 por noite</t>
   </si>
   <si>
-    <t>R$326 por noite, originalmente R$358</t>
-  </si>
-  <si>
-    <t>R$228 por noite</t>
-  </si>
-  <si>
-    <t>R$189 por noite, originalmente R$302</t>
-  </si>
-  <si>
-    <t>R$136 por noite</t>
-  </si>
-  <si>
-    <t>R$91 por noite</t>
-  </si>
-  <si>
-    <t>R$116 por noite, originalmente R$137</t>
+    <t>R$476 por noite</t>
+  </si>
+  <si>
+    <t>R$67 por noite</t>
+  </si>
+  <si>
+    <t>R$72 por noite</t>
+  </si>
+  <si>
+    <t>R$304 por noite</t>
+  </si>
+  <si>
+    <t>R$258 por noite, originalmente R$327</t>
+  </si>
+  <si>
+    <t>R$347 por noite</t>
+  </si>
+  <si>
+    <t>R$76 por noite, originalmente R$84</t>
+  </si>
+  <si>
+    <t>R$123 por noite</t>
+  </si>
+  <si>
+    <t>R$210 por noite</t>
   </si>
   <si>
     <t>R$314 por noite</t>
   </si>
   <si>
-    <t>R$415 por noite, originalmente R$482</t>
-  </si>
-  <si>
-    <t>R$54 por noite, originalmente R$66</t>
-  </si>
-  <si>
-    <t>R$347 por noite</t>
-  </si>
-  <si>
     <t>R$115 por noite</t>
   </si>
   <si>
-    <t>R$198 por noite</t>
-  </si>
-  <si>
-    <t>R$132 por noite, originalmente R$181</t>
-  </si>
-  <si>
-    <t>R$296 por noite</t>
-  </si>
-  <si>
-    <t>R$76 por noite, originalmente R$84</t>
-  </si>
-  <si>
-    <t>R$123 por noite</t>
+    <t>R$290 por noite</t>
+  </si>
+  <si>
+    <t>5,0 (3)</t>
+  </si>
+  <si>
+    <t>4,92 (25)</t>
+  </si>
+  <si>
+    <t>4,8 (10)</t>
+  </si>
+  <si>
+    <t>4,44 (9)</t>
   </si>
   <si>
     <t>4,89 (28)</t>
@@ -201,49 +216,43 @@
     <t>5,0 (16)</t>
   </si>
   <si>
+    <t>5,0 (7)</t>
+  </si>
+  <si>
+    <t>Novo</t>
+  </si>
+  <si>
+    <t>4,83 (18)</t>
+  </si>
+  <si>
+    <t>4,9 (51)</t>
+  </si>
+  <si>
+    <t>5,0 (9)</t>
+  </si>
+  <si>
+    <t>4,96 (24)</t>
+  </si>
+  <si>
+    <t>4,95 (74)</t>
+  </si>
+  <si>
+    <t>4,94 (17)</t>
+  </si>
+  <si>
+    <t>4,97 (38)</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
     <t>4,74 (70)</t>
   </si>
   <si>
-    <t>4,44 (9)</t>
-  </si>
-  <si>
-    <t>5,0 (9)</t>
-  </si>
-  <si>
-    <t>Novo</t>
-  </si>
-  <si>
-    <t>4,84 (75)</t>
-  </si>
-  <si>
-    <t>4,92 (173)</t>
-  </si>
-  <si>
-    <t>4,97 (37)</t>
-  </si>
-  <si>
-    <t>5,0 (45)</t>
-  </si>
-  <si>
-    <t>4,96 (24)</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>4,8 (10)</t>
-  </si>
-  <si>
-    <t>5,0 (3)</t>
-  </si>
-  <si>
-    <t>4,92 (25)</t>
-  </si>
-  <si>
-    <t>4,95 (73)</t>
-  </si>
-  <si>
     <t>Superhost</t>
+  </si>
+  <si>
+    <t>24/04/2023 21:45:58</t>
   </si>
 </sst>
 </file>
@@ -601,13 +610,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -626,335 +635,392 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>60</v>
+      </c>
+      <c r="G2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>61</v>
+      </c>
+      <c r="G3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
         <v>35</v>
       </c>
-      <c r="D5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>36</v>
-      </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>77</v>
+      </c>
+      <c r="G6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>65</v>
+      </c>
+      <c r="F7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>66</v>
+      </c>
+      <c r="G8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" t="s">
+        <v>77</v>
+      </c>
+      <c r="G10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
         <v>38</v>
       </c>
-      <c r="D9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" t="s">
-        <v>66</v>
-      </c>
-      <c r="F9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" t="s">
-        <v>67</v>
-      </c>
-      <c r="F10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>40</v>
-      </c>
       <c r="D11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F11" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>77</v>
+      </c>
+      <c r="G11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>70</v>
+      </c>
+      <c r="G12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E13" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>71</v>
+      </c>
+      <c r="G13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
         <v>35</v>
       </c>
       <c r="D14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E14" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>72</v>
+      </c>
+      <c r="F14" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E15" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>60</v>
+      </c>
+      <c r="F15" t="s">
+        <v>77</v>
+      </c>
+      <c r="G15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E16" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>73</v>
+      </c>
+      <c r="F16" t="s">
+        <v>77</v>
+      </c>
+      <c r="G16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E17" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>74</v>
+      </c>
+      <c r="F17" t="s">
+        <v>77</v>
+      </c>
+      <c r="G17" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E18" t="s">
-        <v>74</v>
-      </c>
-      <c r="F18" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="D19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E19" t="s">
-        <v>72</v>
-      </c>
-      <c r="F19" t="s">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="G19" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/url2.xlsx
+++ b/url2.xlsx
@@ -587,7 +587,7 @@
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr">
         <is>
-          <t>27/04/2023 15:00:13</t>
+          <t>27/04/2023 15:23:27</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr">
         <is>
-          <t>27/04/2023 15:00:13</t>
+          <t>27/04/2023 15:23:27</t>
         </is>
       </c>
     </row>
@@ -693,7 +693,7 @@
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr">
         <is>
-          <t>27/04/2023 15:00:13</t>
+          <t>27/04/2023 15:23:27</t>
         </is>
       </c>
     </row>
@@ -744,7 +744,7 @@
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr">
         <is>
-          <t>27/04/2023 15:00:13</t>
+          <t>27/04/2023 15:23:27</t>
         </is>
       </c>
     </row>
@@ -799,7 +799,7 @@
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr">
         <is>
-          <t>27/04/2023 15:00:13</t>
+          <t>27/04/2023 15:23:27</t>
         </is>
       </c>
     </row>
@@ -854,7 +854,7 @@
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr">
         <is>
-          <t>27/04/2023 15:00:13</t>
+          <t>27/04/2023 15:23:27</t>
         </is>
       </c>
     </row>
@@ -905,7 +905,7 @@
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr">
         <is>
-          <t>27/04/2023 15:00:13</t>
+          <t>27/04/2023 15:23:27</t>
         </is>
       </c>
     </row>
@@ -960,7 +960,7 @@
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr">
         <is>
-          <t>27/04/2023 15:00:13</t>
+          <t>27/04/2023 15:23:27</t>
         </is>
       </c>
     </row>
@@ -1015,7 +1015,7 @@
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr">
         <is>
-          <t>27/04/2023 15:00:13</t>
+          <t>27/04/2023 15:23:27</t>
         </is>
       </c>
     </row>
@@ -1071,7 +1071,7 @@
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr">
         <is>
-          <t>27/04/2023 15:00:13</t>
+          <t>27/04/2023 15:23:27</t>
         </is>
       </c>
     </row>
@@ -1126,7 +1126,7 @@
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr">
         <is>
-          <t>27/04/2023 15:00:13</t>
+          <t>27/04/2023 15:23:27</t>
         </is>
       </c>
     </row>
@@ -1181,7 +1181,7 @@
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr">
         <is>
-          <t>27/04/2023 15:00:13</t>
+          <t>27/04/2023 15:23:27</t>
         </is>
       </c>
     </row>
@@ -1232,7 +1232,7 @@
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr">
         <is>
-          <t>27/04/2023 15:00:13</t>
+          <t>27/04/2023 15:23:27</t>
         </is>
       </c>
     </row>
@@ -1283,7 +1283,7 @@
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr">
         <is>
-          <t>27/04/2023 15:00:13</t>
+          <t>27/04/2023 15:23:27</t>
         </is>
       </c>
     </row>
@@ -1338,7 +1338,7 @@
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr">
         <is>
-          <t>27/04/2023 15:00:13</t>
+          <t>27/04/2023 15:23:27</t>
         </is>
       </c>
     </row>
@@ -1393,7 +1393,7 @@
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
-          <t>27/04/2023 15:00:13</t>
+          <t>27/04/2023 15:23:27</t>
         </is>
       </c>
     </row>
@@ -1444,7 +1444,7 @@
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
-          <t>27/04/2023 15:00:13</t>
+          <t>27/04/2023 15:23:27</t>
         </is>
       </c>
     </row>
@@ -1495,7 +1495,7 @@
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr">
         <is>
-          <t>27/04/2023 15:00:13</t>
+          <t>27/04/2023 15:23:27</t>
         </is>
       </c>
     </row>
